--- a/public/templates/list_daily_template.xlsx
+++ b/public/templates/list_daily_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyecto_quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7DFEAB-DAFA-4E85-BE56-E648D700182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2549AA-880A-4533-BFC8-D502DC1C2E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>PERIODO 12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ITEM</t>
   </si>
@@ -107,9 +104,40 @@
     <numFmt numFmtId="164" formatCode="[$-280A]d&quot; &quot;mmmm&quot; &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,68 +147,25 @@
       <b/>
       <sz val="9.5"/>
       <color theme="1"/>
-      <name val="Agency FB"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,8 +203,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -231,8 +228,94 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -241,9 +324,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -252,233 +339,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -487,102 +394,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,239 +802,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39503C8-4BE0-4347-8953-4EF564791738}">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="12" width="4.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="20">
+        <v>3</v>
+      </c>
+      <c r="J5" s="20">
+        <v>4</v>
+      </c>
+      <c r="K5" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="L5" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="C10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7">
+        <v>160</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
-        <v>3</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15">
-        <v>20</v>
-      </c>
-      <c r="F11" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15">
-        <v>80</v>
-      </c>
-      <c r="F12" s="16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
-        <v>6</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="21"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:H3"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:L3"/>
     <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/public/templates/list_daily_template.xlsx
+++ b/public/templates/list_daily_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyecto_quisvar\quisvar_proyect_ft\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2549AA-880A-4533-BFC8-D502DC1C2E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382E257-33C8-43F9-BE70-6FA722C05A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,7 +452,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,12 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +804,7 @@
   <dimension ref="B3:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,55 +816,56 @@
     <col min="5" max="5" width="13" style="12" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
     <col min="7" max="12" width="4.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="12" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="20">
         <v>1</v>
       </c>
@@ -884,19 +884,22 @@
       <c r="L5" s="20">
         <v>6</v>
       </c>
+      <c r="M5" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1047,13 +1050,13 @@
     <row r="37" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="G4:L4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/public/templates/list_daily_template.xlsx
+++ b/public/templates/list_daily_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382E257-33C8-43F9-BE70-6FA722C05A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06F892-F877-40C9-85F9-832996F5218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
@@ -455,11 +455,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,7 +804,7 @@
   <dimension ref="B3:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,18 +821,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -850,15 +850,15 @@
       <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
@@ -866,27 +866,13 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>3</v>
-      </c>
-      <c r="J5" s="20">
-        <v>4</v>
-      </c>
-      <c r="K5" s="20">
-        <v>5</v>
-      </c>
-      <c r="L5" s="20">
-        <v>6</v>
-      </c>
-      <c r="M5" s="20">
-        <v>7</v>
-      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
@@ -1050,13 +1036,13 @@
     <row r="37" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/public/templates/list_daily_template.xlsx
+++ b/public/templates/list_daily_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06F892-F877-40C9-85F9-832996F5218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19239D36-9469-4669-B2F4-DAD3A2C11766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ITEM</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>licrencia o permiso (L)</t>
-  </si>
-  <si>
-    <t>Llamados</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -388,6 +385,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -449,18 +459,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +474,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39503C8-4BE0-4347-8953-4EF564791738}">
-  <dimension ref="B3:P37"/>
+  <dimension ref="B1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -815,79 +823,73 @@
     <col min="4" max="4" width="37.28515625" style="12" customWidth="1"/>
     <col min="5" max="5" width="13" style="12" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="12" width="4.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="12"/>
+    <col min="7" max="16" width="3.42578125" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="1" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="26"/>
+    </row>
+    <row r="3" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +907,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -922,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -940,7 +942,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -957,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -974,7 +976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -992,7 +994,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>6</v>
       </c>
@@ -1009,11 +1011,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1035,9 +1037,7 @@
     <row r="35" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B3:M3"/>
+  <mergeCells count="5">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
